--- a/Analysis_summary.xlsx
+++ b/Analysis_summary.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/57b82347e186ec2f/Documents/Spider_monkey_stats/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\OneDrive\Documents\Spider_monkey_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{59D6070C-0A0A-44F2-BAA4-7719D1B4EB92}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="10_ncr:100000_{86FF9FA6-A951-4BFD-83C7-BD78E056E22A}" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{465018BE-0D44-4872-9583-BC8AF90DBEFD}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="10905" xr2:uid="{E13E1DD5-0C14-4C70-A1E2-A164B8A40FE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
   <si>
     <t>Independent Variable</t>
   </si>
@@ -81,12 +81,6 @@
     <t>single-step method</t>
   </si>
   <si>
-    <t>height above ground (zone)</t>
-  </si>
-  <si>
-    <t>height above ground (m)</t>
-  </si>
-  <si>
     <t>p = .0001, higher immediately after than immediately before (Tukey HSD, p = .0111), higher immediately after than when no meal is expected/served (Tukey HSD, p &lt; .001)</t>
   </si>
   <si>
@@ -144,9 +138,6 @@
     <t>log transformation</t>
   </si>
   <si>
-    <t>% Total Time/Scans</t>
-  </si>
-  <si>
     <t>p = .0512, higher in Center than Satellite (Tukey HSD, p = .0496)</t>
   </si>
   <si>
@@ -163,13 +154,28 @@
   </si>
   <si>
     <t>need to double-check methods… residuals did not look great… lots of zeros</t>
+  </si>
+  <si>
+    <t>% Time in Center (scans)</t>
+  </si>
+  <si>
+    <t>% Time in Center (focals)</t>
+  </si>
+  <si>
+    <t>% Total Time/mean</t>
+  </si>
+  <si>
+    <t>height zone index (1-4)</t>
+  </si>
+  <si>
+    <t>height zone index (scaled)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +185,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -206,10 +219,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,7 +538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF29758-DCBC-4F26-84BC-9D967F3137A8}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -532,18 +546,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="61.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="12" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="25.5703125" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -551,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
@@ -581,304 +596,311 @@
         <v>14</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>6.3549999999999995E-2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.1211</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.47860000000000003</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.18310000000000001</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>6.3549999999999995E-2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.1211</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.47860000000000003</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.18310000000000001</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="2">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="2">
-        <v>5.6399999999999999E-2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis_summary.xlsx
+++ b/Analysis_summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\OneDrive\Documents\Spider_monkey_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="10_ncr:100000_{86FF9FA6-A951-4BFD-83C7-BD78E056E22A}" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{465018BE-0D44-4872-9583-BC8AF90DBEFD}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="10_ncr:100000_{86FF9FA6-A951-4BFD-83C7-BD78E056E22A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{CAAAFEFA-BC53-405C-8A05-398F96D9A290}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="10905" xr2:uid="{E13E1DD5-0C14-4C70-A1E2-A164B8A40FE9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
   <si>
     <t>Independent Variable</t>
   </si>
@@ -126,9 +126,6 @@
     <t>% Scratching (subset of SDB)</t>
   </si>
   <si>
-    <t>p = .0405, higher in Center than in Satellite (Tukey HSD, p = .0319)</t>
-  </si>
-  <si>
     <t>p = .0333, higher in Satellite than in Center (Tukey HSD, p = .008)</t>
   </si>
   <si>
@@ -169,13 +166,40 @@
   </si>
   <si>
     <t>height zone index (scaled)</t>
+  </si>
+  <si>
+    <t>% Caregiver</t>
+  </si>
+  <si>
+    <t>% Not Visible</t>
+  </si>
+  <si>
+    <t>% Other</t>
+  </si>
+  <si>
+    <t>% Parental</t>
+  </si>
+  <si>
+    <t>% Prosocial</t>
+  </si>
+  <si>
+    <t>% Sociosexual</t>
+  </si>
+  <si>
+    <t>% Agonistic</t>
+  </si>
+  <si>
+    <t>p = .0405, higher with two enclosures than with one (Tukey HSD, p = .0319)</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +222,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -216,17 +247,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -538,17 +584,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF29758-DCBC-4F26-84BC-9D967F3137A8}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" style="2" customWidth="1"/>
@@ -556,7 +602,7 @@
     <col min="8" max="8" width="12" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="25.5703125" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -565,8 +611,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>45</v>
+      <c r="B1" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
@@ -599,308 +645,367 @@
         <v>22</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B9" s="7">
         <v>6.3549999999999995E-2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="J9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.1211</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.47860000000000003</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.18310000000000001</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="3">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="3">
-        <v>5.6399999999999999E-2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.1211</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>3</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.47860000000000003</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>4</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.18310000000000001</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
+      </c>
+      <c r="B13" s="7">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="B14" s="7">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis_summary.xlsx
+++ b/Analysis_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\OneDrive\Documents\Spider_monkey_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="10_ncr:100000_{86FF9FA6-A951-4BFD-83C7-BD78E056E22A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{CAAAFEFA-BC53-405C-8A05-398F96D9A290}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="10_ncr:100000_{86FF9FA6-A951-4BFD-83C7-BD78E056E22A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{0D2DB547-F771-478F-A961-900FC8D6E35F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="10905" xr2:uid="{E13E1DD5-0C14-4C70-A1E2-A164B8A40FE9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="67">
   <si>
     <t>Independent Variable</t>
   </si>
@@ -54,9 +54,6 @@
     <t>arcsine sq rt</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>n.s.</t>
   </si>
   <si>
@@ -72,12 +69,6 @@
     <t>Focal Age</t>
   </si>
   <si>
-    <t>Social Group as random factor</t>
-  </si>
-  <si>
-    <t>Focal ID as nested factor</t>
-  </si>
-  <si>
     <t>single-step method</t>
   </si>
   <si>
@@ -93,9 +84,6 @@
     <t>p = .0649, higher immediately before meals than immediately after (Tukey HSD, p = .0566)</t>
   </si>
   <si>
-    <t>Tukey p-value adjustment</t>
-  </si>
-  <si>
     <t>p &lt; .0001, higher without meals than immediately before (Tukey HSD, p = .000199) or immediately after (Tukey HSD, p &lt; 1e-04)</t>
   </si>
   <si>
@@ -135,9 +123,6 @@
     <t>log transformation</t>
   </si>
   <si>
-    <t>p = .0512, higher in Center than Satellite (Tukey HSD, p = .0496)</t>
-  </si>
-  <si>
     <t># individuals in proximity (&lt; 5m)</t>
   </si>
   <si>
@@ -193,6 +178,54 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>range: 0-15; md: 5</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Gaussian</t>
+  </si>
+  <si>
+    <t>Poisson</t>
+  </si>
+  <si>
+    <t>Random/Nested</t>
+  </si>
+  <si>
+    <t>FocalGroup/FocalID</t>
+  </si>
+  <si>
+    <t>p-value adjustment</t>
+  </si>
+  <si>
+    <t>Post hoc test</t>
+  </si>
+  <si>
+    <t>Tukey HSD</t>
+  </si>
+  <si>
+    <t>p = .0512, higher with two enclosures than with one (Tukey HSD, p = .0496)</t>
+  </si>
+  <si>
+    <t>F = 365.98, higher with two enclosures than with one (Tukey HSD: p = &lt; .001)</t>
+  </si>
+  <si>
+    <t>F = 74.6407, lower in Satellite than in Center (Tukey HSD: p &lt; .001)</t>
+  </si>
+  <si>
+    <t>F = 8.3864, higher in second month than in first (Tukey HSD: p &lt; .001), lower in third month than in second (Tukey HSD: p = .027)</t>
+  </si>
+  <si>
+    <t>F = 40.2724, higher in males than females (Tukey HSD: p &lt; .001)</t>
+  </si>
+  <si>
+    <t>F = 6.0598, lower in subadults than in adults (Tukey HSD: p = 0.0135)</t>
   </si>
 </sst>
 </file>
@@ -584,44 +617,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF29758-DCBC-4F26-84BC-9D967F3137A8}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="7" customWidth="1"/>
+    <col min="3" max="4" width="19.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="12" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="25.5703125" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="12" width="12.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="25.5703125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
@@ -630,81 +663,84 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B2" s="6">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B3" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B4" s="6">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B5" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B6" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B7" s="6">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B8" s="6">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -714,35 +750,38 @@
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
+      <c r="D9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -752,35 +791,38 @@
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>9</v>
+      <c r="D10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -790,35 +832,38 @@
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>9</v>
+      <c r="D11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -828,37 +873,40 @@
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>9</v>
+      <c r="D12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B13" s="7">
         <v>8.3299999999999999E-2</v>
@@ -866,37 +914,40 @@
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>9</v>
+      <c r="D13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B14" s="7">
         <v>5.6399999999999999E-2</v>
@@ -904,108 +955,150 @@
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>9</v>
+      <c r="D14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="E15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" s="2" t="s">
+      <c r="E18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis_summary.xlsx
+++ b/Analysis_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\OneDrive\Documents\Spider_monkey_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="10_ncr:100000_{86FF9FA6-A951-4BFD-83C7-BD78E056E22A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{0D2DB547-F771-478F-A961-900FC8D6E35F}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="10_ncr:100000_{86FF9FA6-A951-4BFD-83C7-BD78E056E22A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{6D5CA6D4-47A0-4952-9CD7-35D479B90AD3}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="10905" xr2:uid="{E13E1DD5-0C14-4C70-A1E2-A164B8A40FE9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="73">
   <si>
     <t>Independent Variable</t>
   </si>
@@ -226,6 +226,24 @@
   </si>
   <si>
     <t>F = 6.0598, lower in subadults than in adults (Tukey HSD: p = 0.0135)</t>
+  </si>
+  <si>
+    <t>range: 0-4</t>
+  </si>
+  <si>
+    <t>ANOVA did not yield p-values… unclear if it matters?</t>
+  </si>
+  <si>
+    <t>p &lt; .001, lower with two enclosures than with just one (Tukey HSD: p &lt; .001)</t>
+  </si>
+  <si>
+    <t>p &lt; .001, higher in Satellite than in Center (Tukey HSD:  p &lt; .001)</t>
+  </si>
+  <si>
+    <t>p = .01725, lower in males than in females (Tukey HSD: p = .00185)</t>
+  </si>
+  <si>
+    <t>p &lt; .001, lower in second month than first (Tukey HSD: p &lt; .001), higher in third month than second (Tukey HSD: p = .0281)</t>
   </si>
 </sst>
 </file>
@@ -619,9 +637,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF29758-DCBC-4F26-84BC-9D967F3137A8}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,12 +1053,48 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
@@ -1080,23 +1134,26 @@
       <c r="M18" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>38</v>
       </c>

--- a/Analysis_summary.xlsx
+++ b/Analysis_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\OneDrive\Documents\Spider_monkey_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="10_ncr:100000_{86FF9FA6-A951-4BFD-83C7-BD78E056E22A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{6D5CA6D4-47A0-4952-9CD7-35D479B90AD3}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="10_ncr:100000_{86FF9FA6-A951-4BFD-83C7-BD78E056E22A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{409CAB50-BA9A-4CF5-A45E-A20A1BE10B8F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="10905" xr2:uid="{E13E1DD5-0C14-4C70-A1E2-A164B8A40FE9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="74">
   <si>
     <t>Independent Variable</t>
   </si>
@@ -180,9 +180,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>range: 0-15; md: 5</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
@@ -228,9 +225,6 @@
     <t>F = 6.0598, lower in subadults than in adults (Tukey HSD: p = 0.0135)</t>
   </si>
   <si>
-    <t>range: 0-4</t>
-  </si>
-  <si>
     <t>ANOVA did not yield p-values… unclear if it matters?</t>
   </si>
   <si>
@@ -244,6 +238,15 @@
   </si>
   <si>
     <t>p &lt; .001, lower in second month than first (Tukey HSD: p &lt; .001), higher in third month than second (Tukey HSD: p = .0281)</t>
+  </si>
+  <si>
+    <t>r: 0-4, m = 0.91, md = 1</t>
+  </si>
+  <si>
+    <t>r: 0-15; md: 5</t>
+  </si>
+  <si>
+    <t>r: 0-4, m = 0.08, md = 0</t>
   </si>
 </sst>
 </file>
@@ -637,9 +640,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF29758-DCBC-4F26-84BC-9D967F3137A8}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,10 +672,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
@@ -693,10 +696,10 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>35</v>
@@ -769,10 +772,10 @@
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -793,7 +796,7 @@
         <v>9</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>14</v>
@@ -810,10 +813,10 @@
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -834,7 +837,7 @@
         <v>21</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>14</v>
@@ -851,10 +854,10 @@
         <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
@@ -875,7 +878,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>14</v>
@@ -892,10 +895,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -916,7 +919,7 @@
         <v>25</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>14</v>
@@ -933,10 +936,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
@@ -957,7 +960,7 @@
         <v>9</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>26</v>
@@ -974,10 +977,10 @@
         <v>8</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>49</v>
@@ -998,7 +1001,7 @@
         <v>9</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>14</v>
@@ -1015,13 +1018,13 @@
         <v>31</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>9</v>
@@ -1039,7 +1042,7 @@
         <v>9</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>14</v>
@@ -1052,43 +1055,46 @@
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="B16" s="8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>14</v>
@@ -1099,43 +1105,43 @@
         <v>34</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="L18" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">

--- a/Analysis_summary.xlsx
+++ b/Analysis_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\OneDrive\Documents\Spider_monkey_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="10_ncr:100000_{86FF9FA6-A951-4BFD-83C7-BD78E056E22A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{409CAB50-BA9A-4CF5-A45E-A20A1BE10B8F}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="10_ncr:100000_{86FF9FA6-A951-4BFD-83C7-BD78E056E22A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{F84382C7-C227-49D6-8509-09503B588591}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="10905" xr2:uid="{E13E1DD5-0C14-4C70-A1E2-A164B8A40FE9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="80">
   <si>
     <t>Independent Variable</t>
   </si>
@@ -147,9 +147,6 @@
     <t>% Total Time/mean</t>
   </si>
   <si>
-    <t>height zone index (1-4)</t>
-  </si>
-  <si>
     <t>height zone index (scaled)</t>
   </si>
   <si>
@@ -247,6 +244,27 @@
   </si>
   <si>
     <t>r: 0-4, m = 0.08, md = 0</t>
+  </si>
+  <si>
+    <t>Zero-inflated negative binomial</t>
+  </si>
+  <si>
+    <t>GLMM not fitting values very well- residuals very heteroscedastic and far from normal… I'm okay with abandoning this variable</t>
+  </si>
+  <si>
+    <t>r: 0-2, m = 1.46, md = 2</t>
+  </si>
+  <si>
+    <t>FocalID</t>
+  </si>
+  <si>
+    <t>p &lt; .001, lower in Center than in Satellite (Tukey HSD: p &lt; .001)</t>
+  </si>
+  <si>
+    <t>Tulkey HSD</t>
+  </si>
+  <si>
+    <t>Use just focal_id as a random effect, not nested within group to avoid overfitting</t>
   </si>
 </sst>
 </file>
@@ -638,11 +656,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF29758-DCBC-4F26-84BC-9D967F3137A8}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,10 +690,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
@@ -696,10 +714,10 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>35</v>
@@ -707,7 +725,7 @@
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="6">
         <v>1E-3</v>
@@ -715,7 +733,7 @@
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="6">
         <v>3.0000000000000001E-3</v>
@@ -723,7 +741,7 @@
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="6">
         <v>2.9000000000000001E-2</v>
@@ -731,7 +749,7 @@
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="6">
         <v>8.9999999999999993E-3</v>
@@ -739,7 +757,7 @@
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="6">
         <v>6.0000000000000001E-3</v>
@@ -747,7 +765,7 @@
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="6">
         <v>1.9E-2</v>
@@ -755,7 +773,7 @@
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="6">
         <v>2E-3</v>
@@ -772,10 +790,10 @@
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -796,7 +814,7 @@
         <v>9</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>14</v>
@@ -813,10 +831,10 @@
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -837,7 +855,7 @@
         <v>21</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>14</v>
@@ -854,10 +872,10 @@
         <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
@@ -878,7 +896,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>14</v>
@@ -895,10 +913,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -919,7 +937,7 @@
         <v>25</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>14</v>
@@ -936,10 +954,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
@@ -960,7 +978,7 @@
         <v>9</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>26</v>
@@ -977,13 +995,13 @@
         <v>8</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>29</v>
@@ -1001,7 +1019,7 @@
         <v>9</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>14</v>
@@ -1012,19 +1030,19 @@
         <v>30</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>9</v>
@@ -1042,7 +1060,7 @@
         <v>9</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>14</v>
@@ -1056,7 +1074,43 @@
         <v>33</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>73</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1064,37 +1118,37 @@
         <v>32</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>14</v>
@@ -1105,62 +1159,96 @@
         <v>34</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="L18" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="B19" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
         <v>38</v>
       </c>
     </row>

--- a/Analysis_summary.xlsx
+++ b/Analysis_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\OneDrive\Documents\Spider_monkey_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="10_ncr:100000_{86FF9FA6-A951-4BFD-83C7-BD78E056E22A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{F84382C7-C227-49D6-8509-09503B588591}"/>
+  <xr:revisionPtr revIDLastSave="172" documentId="10_ncr:100000_{86FF9FA6-A951-4BFD-83C7-BD78E056E22A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{85710D54-0681-48DA-9620-E613947B3BA2}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="10905" xr2:uid="{E13E1DD5-0C14-4C70-A1E2-A164B8A40FE9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="81">
   <si>
     <t>Independent Variable</t>
   </si>
@@ -138,9 +138,6 @@
     <t>need to double-check methods… residuals did not look great… lots of zeros</t>
   </si>
   <si>
-    <t>% Time in Center (scans)</t>
-  </si>
-  <si>
     <t>% Time in Center (focals)</t>
   </si>
   <si>
@@ -237,24 +234,15 @@
     <t>p &lt; .001, lower in second month than first (Tukey HSD: p &lt; .001), higher in third month than second (Tukey HSD: p = .0281)</t>
   </si>
   <si>
-    <t>r: 0-4, m = 0.91, md = 1</t>
-  </si>
-  <si>
     <t>r: 0-15; md: 5</t>
   </si>
   <si>
-    <t>r: 0-4, m = 0.08, md = 0</t>
-  </si>
-  <si>
     <t>Zero-inflated negative binomial</t>
   </si>
   <si>
     <t>GLMM not fitting values very well- residuals very heteroscedastic and far from normal… I'm okay with abandoning this variable</t>
   </si>
   <si>
-    <t>r: 0-2, m = 1.46, md = 2</t>
-  </si>
-  <si>
     <t>FocalID</t>
   </si>
   <si>
@@ -265,6 +253,21 @@
   </si>
   <si>
     <t>Use just focal_id as a random effect, not nested within group to avoid overfitting</t>
+  </si>
+  <si>
+    <t>r: 0-2, m: 1.46, md: 2</t>
+  </si>
+  <si>
+    <t>r: 0-4, m: 0.91, md: 1</t>
+  </si>
+  <si>
+    <t>r: 0-4, m: 0.08, md: 0</t>
+  </si>
+  <si>
+    <t>r: 0-1, m: 0.62, md: 0.69</t>
+  </si>
+  <si>
+    <t>n.s., but preference for the center was lower in subadults than in adults (Tukey HSD: p = .0493)</t>
   </si>
 </sst>
 </file>
@@ -656,11 +659,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF29758-DCBC-4F26-84BC-9D967F3137A8}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,16 +687,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
@@ -714,10 +717,10 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>35</v>
@@ -725,7 +728,7 @@
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="6">
         <v>1E-3</v>
@@ -733,7 +736,7 @@
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="6">
         <v>3.0000000000000001E-3</v>
@@ -741,7 +744,7 @@
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="6">
         <v>2.9000000000000001E-2</v>
@@ -749,7 +752,7 @@
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="6">
         <v>8.9999999999999993E-3</v>
@@ -757,7 +760,7 @@
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="6">
         <v>6.0000000000000001E-3</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="6">
         <v>1.9E-2</v>
@@ -773,7 +776,7 @@
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="6">
         <v>2E-3</v>
@@ -790,10 +793,10 @@
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -814,7 +817,7 @@
         <v>9</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>14</v>
@@ -831,10 +834,10 @@
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -855,7 +858,7 @@
         <v>21</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>14</v>
@@ -872,10 +875,10 @@
         <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
@@ -896,7 +899,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>14</v>
@@ -913,10 +916,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -937,7 +940,7 @@
         <v>25</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>14</v>
@@ -954,10 +957,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
@@ -978,7 +981,7 @@
         <v>9</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>26</v>
@@ -995,13 +998,13 @@
         <v>8</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>29</v>
@@ -1019,7 +1022,7 @@
         <v>9</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>14</v>
@@ -1030,19 +1033,19 @@
         <v>30</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>9</v>
@@ -1060,7 +1063,7 @@
         <v>9</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>14</v>
@@ -1069,48 +1072,48 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>74</v>
+      <c r="B16" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1118,37 +1121,37 @@
         <v>32</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>14</v>
@@ -1159,66 +1162,66 @@
         <v>34</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="L18" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>9</v>
@@ -1233,23 +1236,54 @@
         <v>9</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>38</v>
+      <c r="B20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis_summary.xlsx
+++ b/Analysis_summary.xlsx
@@ -663,7 +663,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
